--- a/Special_Mid Term Award List_OOP_BMED_EXAM_DECEMBER_2023.xlsx
+++ b/Special_Mid Term Award List_OOP_BMED_EXAM_DECEMBER_2023.xlsx
@@ -102,9 +102,6 @@
     <t>Atiq ur Rehman</t>
   </si>
   <si>
-    <t>23BME26</t>
-  </si>
-  <si>
     <t>S.NO</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Second Semester, 2023 (Mid with Final)</t>
+  </si>
+  <si>
+    <t>22BME26</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -664,7 +664,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -673,7 +673,7 @@
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -682,10 +682,10 @@
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -693,10 +693,10 @@
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -711,13 +711,13 @@
     </row>
     <row r="9" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
         <v>7</v>
